--- a/r5-AGES-MedicinalProduct-main/ValueSet-unitsOfMeasurementVs.xlsx
+++ b/r5-AGES-MedicinalProduct-main/ValueSet-unitsOfMeasurementVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
